--- a/analyse 2.xlsx
+++ b/analyse 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB8B63A-D531-4959-BE33-112BE23F6393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCCBC8F-125C-4CE0-BFF3-AABBB4EC3E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="145">
   <si>
     <t>Validation CSS</t>
   </si>
@@ -317,46 +317,28 @@
     <t>Wave ; NVDA</t>
   </si>
   <si>
-    <t>Navigation via tab ou d (via repère)</t>
-  </si>
-  <si>
-    <t>Contenu non imbriqué dans une région ARIA/navigation non visible</t>
-  </si>
-  <si>
-    <t>Créer navigation visible (outline) avec des régions aria</t>
+    <t>Elément vide</t>
+  </si>
+  <si>
+    <t>Perturbe les lecteurs d’écrans &lt;li&gt; vide</t>
+  </si>
+  <si>
+    <t>Mettre un contenu et/ou l'attribut aria-hidden</t>
+  </si>
+  <si>
+    <t>dareboost ; NVDA</t>
+  </si>
+  <si>
+    <t>Les br source de confusion ou frustration</t>
+  </si>
+  <si>
+    <t>NVDA lit les br pour rien, pas de contenu associé</t>
+  </si>
+  <si>
+    <t>Les enlever</t>
   </si>
   <si>
     <t>NVDA</t>
-  </si>
-  <si>
-    <t>Elément vide</t>
-  </si>
-  <si>
-    <t>Perturbe les lecteurs d’écrans &lt;li&gt; vide</t>
-  </si>
-  <si>
-    <t>Mettre un contenu et/ou l'attribut aria-hidden</t>
-  </si>
-  <si>
-    <t>dareboost ; NVDA</t>
-  </si>
-  <si>
-    <t>Les br source de confusion ou frustration</t>
-  </si>
-  <si>
-    <t>NVDA lit les br pour rien, pas de contenu associé</t>
-  </si>
-  <si>
-    <t>Les enlever</t>
-  </si>
-  <si>
-    <t>Formulaire non clair</t>
-  </si>
-  <si>
-    <t>Pas d'explication de champ</t>
-  </si>
-  <si>
-    <t>Expliquez le but de chaque champ de formulaire</t>
   </si>
   <si>
     <t>SEO/Accessibilité</t>
@@ -570,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,7 +560,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +589,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -652,7 +633,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2628900</xdr:colOff>
+      <xdr:colOff>1390650</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -699,7 +680,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -746,7 +727,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2867025</xdr:colOff>
+      <xdr:colOff>1628775</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -793,7 +774,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:colOff>1933575</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1133,30 +1114,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" customWidth="1"/>
     <col min="5" max="5" width="64.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1" t="s">
@@ -1310,15 +1291,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -1390,15 +1371,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="1" t="s">
@@ -1594,15 +1575,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="1" t="s">
@@ -1784,43 +1765,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
-      <c r="A32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>98</v>
-      </c>
+    <row r="32" spans="1:7" ht="15.75" hidden="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>38</v>
@@ -1831,42 +1800,32 @@
         <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="2"/>
@@ -1878,15 +1837,15 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="18.75">
-      <c r="A37" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="1" t="s">
@@ -1913,18 +1872,18 @@
     </row>
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
         <v>24</v>
       </c>
@@ -1934,18 +1893,18 @@
     </row>
     <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>24</v>
       </c>
@@ -1955,35 +1914,35 @@
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18.75">
-      <c r="A42" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="1" t="s">
@@ -2010,16 +1969,16 @@
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -2031,16 +1990,16 @@
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -2052,16 +2011,16 @@
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -2073,20 +2032,20 @@
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>38</v>
@@ -2094,20 +2053,20 @@
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>38</v>
@@ -2115,16 +2074,16 @@
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -2136,16 +2095,16 @@
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -2157,18 +2116,18 @@
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
         <v>55</v>
       </c>
@@ -2178,23 +2137,23 @@
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H52" s="3"/>
     </row>
